--- a/TestData/TMTI0055389_EditExistingOppEngToNewCFJobType.xlsx
+++ b/TestData/TMTI0055389_EditExistingOppEngToNewCFJobType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CC92E-0DC2-41CF-8FDD-DA5A11933E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A99B307-1564-46B9-8A81-323360862CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="AppName" sheetId="3" r:id="rId3"/>
     <sheet name="ModuleName" sheetId="4" r:id="rId4"/>
     <sheet name="AddOpportunity" sheetId="12" r:id="rId5"/>
-    <sheet name="NewJobTypes" sheetId="16" r:id="rId6"/>
-    <sheet name="AddContact" sheetId="14" r:id="rId7"/>
-    <sheet name="Engagement" sheetId="15" r:id="rId8"/>
+    <sheet name="NewEngJobTypes" sheetId="17" r:id="rId6"/>
+    <sheet name="NewOppJobTypes" sheetId="16" r:id="rId7"/>
+    <sheet name="AddContact" sheetId="14" r:id="rId8"/>
+    <sheet name="Engagement" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
   <si>
     <t>James Craven</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Gemma Hardy</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
@@ -255,16 +253,115 @@
     <t>Lender Education</t>
   </si>
   <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
-    <t>ESOP Corporate Finance</t>
-  </si>
-  <si>
     <t>IndustryGroup/HLSector</t>
   </si>
   <si>
+    <t>Liability Management</t>
+  </si>
+  <si>
+    <t>Capital Solutions</t>
+  </si>
+  <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Giselle Segura</t>
+  </si>
+  <si>
+    <t>Conversion CF CS</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Ajay Nair</t>
+  </si>
+  <si>
+    <t>SystemAdmin</t>
+  </si>
+  <si>
+    <t>Buyside &amp; Financing Advisory</t>
+  </si>
+  <si>
+    <t>Discretionary CS Advisory</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
+  </si>
+  <si>
+    <t>Equity Placements</t>
+  </si>
+  <si>
+    <t>Public Underwriting</t>
+  </si>
+  <si>
+    <t>Directs</t>
+  </si>
+  <si>
+    <t>GP Advisory</t>
+  </si>
+  <si>
+    <t>GP Stake Sale</t>
+  </si>
+  <si>
+    <t>GP-Led Secondaries</t>
+  </si>
+  <si>
+    <t>LP-Led Secondaries</t>
+  </si>
+  <si>
+    <t>Primary Capital Advisory</t>
+  </si>
+  <si>
+    <t>Financial Asset Sale</t>
+  </si>
+  <si>
+    <t>Financial Asset Sales</t>
+  </si>
+  <si>
+    <t>GP-Led Secondaries OR LP-led Secondaries</t>
+  </si>
+  <si>
+    <t>EngName</t>
+  </si>
+  <si>
+    <t>EngNumber</t>
+  </si>
+  <si>
+    <t>Project Grizzly + Omaha</t>
+  </si>
+  <si>
+    <t>Project Ergon V</t>
+  </si>
+  <si>
+    <t>Project Diablo - Financing</t>
+  </si>
+  <si>
+    <t>100022</t>
+  </si>
+  <si>
+    <t>100864</t>
+  </si>
+  <si>
+    <t>101371</t>
+  </si>
+  <si>
+    <t>NewValue</t>
+  </si>
+  <si>
+    <t>OriginalValue</t>
+  </si>
+  <si>
+    <t>Equity Capital Markets</t>
+  </si>
+  <si>
+    <t>Debt Capital Markets</t>
+  </si>
+  <si>
+    <t>Engagements</t>
+  </si>
+  <si>
+    <t>Private Funds: Primary Advisory</t>
   </si>
 </sst>
 </file>
@@ -647,14 +744,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{DA42774E-31F3-4AC4-AA1E-B738803768AA}"/>
@@ -980,12 +1076,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1012,31 +1108,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB8EB1-471A-4668-845A-6810E22F6BA4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0293C6CF-D2AF-4FB5-B989-23A4E6860FD2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1072,15 +1186,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D296AE2-31EA-40C7-99FB-9B7E70535054}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1091,6 +1205,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1110,193 +1229,196 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1305,26 +1427,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D05195-AD65-4F82-9083-D22CB57D2F70}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BC4FAB-003C-4F77-BC2F-5A917258E961}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>100022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>100864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>101371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D05195-AD65-4F82-9083-D22CB57D2F70}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1333,12 +1643,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2CDCD2-7F5E-40FD-BAB3-4BCEC31CD21E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,54 +1665,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1410,33 +1720,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2386AE-B180-4489-BA71-14068DFEFD5A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
